--- a/6/2/2/Spot transacciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/2/2/Spot transacciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA175"/>
+  <dimension ref="A1:AA176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15311,7 +15314,7 @@
         <v>29149</v>
       </c>
       <c r="E174">
-        <v>24412</v>
+        <v>24411</v>
       </c>
       <c r="F174">
         <v>33540</v>
@@ -15385,7 +15388,7 @@
         <v>186</v>
       </c>
       <c r="B175">
-        <v>84253</v>
+        <v>84252</v>
       </c>
       <c r="C175">
         <v>77102</v>
@@ -15415,7 +15418,7 @@
         <v>5726</v>
       </c>
       <c r="L175">
-        <v>7680</v>
+        <v>7679</v>
       </c>
       <c r="M175">
         <v>557</v>
@@ -15461,6 +15464,89 @@
       </c>
       <c r="AA175">
         <v>2989</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>72715</v>
+      </c>
+      <c r="C176">
+        <v>67042</v>
+      </c>
+      <c r="D176">
+        <v>18601</v>
+      </c>
+      <c r="E176">
+        <v>18599</v>
+      </c>
+      <c r="F176">
+        <v>29842</v>
+      </c>
+      <c r="G176">
+        <v>5819</v>
+      </c>
+      <c r="H176">
+        <v>3037</v>
+      </c>
+      <c r="I176">
+        <v>2782</v>
+      </c>
+      <c r="J176">
+        <v>13677</v>
+      </c>
+      <c r="K176">
+        <v>6014</v>
+      </c>
+      <c r="L176">
+        <v>7663</v>
+      </c>
+      <c r="M176">
+        <v>571</v>
+      </c>
+      <c r="N176">
+        <v>252</v>
+      </c>
+      <c r="O176">
+        <v>319</v>
+      </c>
+      <c r="P176">
+        <v>4527</v>
+      </c>
+      <c r="Q176">
+        <v>2592</v>
+      </c>
+      <c r="R176">
+        <v>1935</v>
+      </c>
+      <c r="S176">
+        <v>1600</v>
+      </c>
+      <c r="T176">
+        <v>492</v>
+      </c>
+      <c r="U176">
+        <v>1108</v>
+      </c>
+      <c r="V176">
+        <v>11007</v>
+      </c>
+      <c r="W176">
+        <v>6871</v>
+      </c>
+      <c r="X176">
+        <v>4135</v>
+      </c>
+      <c r="Y176">
+        <v>5673</v>
+      </c>
+      <c r="Z176">
+        <v>3009</v>
+      </c>
+      <c r="AA176">
+        <v>2665</v>
       </c>
     </row>
   </sheetData>

--- a/6/2/2/Spot transacciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/2/2/Spot transacciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="189">
   <si>
     <t>Serie</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA176"/>
+  <dimension ref="A1:AA177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15305,10 +15308,10 @@
         <v>185</v>
       </c>
       <c r="B174">
-        <v>93240</v>
+        <v>93239</v>
       </c>
       <c r="C174">
-        <v>87101</v>
+        <v>87100</v>
       </c>
       <c r="D174">
         <v>29149</v>
@@ -15365,10 +15368,10 @@
         <v>557</v>
       </c>
       <c r="V174">
-        <v>8071</v>
+        <v>8070</v>
       </c>
       <c r="W174">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="X174">
         <v>3450</v>
@@ -15388,13 +15391,13 @@
         <v>186</v>
       </c>
       <c r="B175">
-        <v>84252</v>
+        <v>84251</v>
       </c>
       <c r="C175">
-        <v>77102</v>
+        <v>77100</v>
       </c>
       <c r="D175">
-        <v>20963</v>
+        <v>20962</v>
       </c>
       <c r="E175">
         <v>22378</v>
@@ -15448,10 +15451,10 @@
         <v>841</v>
       </c>
       <c r="V175">
-        <v>8783</v>
+        <v>8781</v>
       </c>
       <c r="W175">
-        <v>5397</v>
+        <v>5395</v>
       </c>
       <c r="X175">
         <v>3386</v>
@@ -15471,16 +15474,16 @@
         <v>187</v>
       </c>
       <c r="B176">
-        <v>72715</v>
+        <v>72562</v>
       </c>
       <c r="C176">
-        <v>67042</v>
+        <v>66888</v>
       </c>
       <c r="D176">
         <v>18601</v>
       </c>
       <c r="E176">
-        <v>18599</v>
+        <v>18446</v>
       </c>
       <c r="F176">
         <v>29842</v>
@@ -15495,13 +15498,13 @@
         <v>2782</v>
       </c>
       <c r="J176">
-        <v>13677</v>
+        <v>13524</v>
       </c>
       <c r="K176">
         <v>6014</v>
       </c>
       <c r="L176">
-        <v>7663</v>
+        <v>7509</v>
       </c>
       <c r="M176">
         <v>571</v>
@@ -15547,6 +15550,89 @@
       </c>
       <c r="AA176">
         <v>2665</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177">
+        <v>69349</v>
+      </c>
+      <c r="C177">
+        <v>64694</v>
+      </c>
+      <c r="D177">
+        <v>17168</v>
+      </c>
+      <c r="E177">
+        <v>17710</v>
+      </c>
+      <c r="F177">
+        <v>29817</v>
+      </c>
+      <c r="G177">
+        <v>5856</v>
+      </c>
+      <c r="H177">
+        <v>3144</v>
+      </c>
+      <c r="I177">
+        <v>2712</v>
+      </c>
+      <c r="J177">
+        <v>13326</v>
+      </c>
+      <c r="K177">
+        <v>5527</v>
+      </c>
+      <c r="L177">
+        <v>7798</v>
+      </c>
+      <c r="M177">
+        <v>444</v>
+      </c>
+      <c r="N177">
+        <v>248</v>
+      </c>
+      <c r="O177">
+        <v>195</v>
+      </c>
+      <c r="P177">
+        <v>4730</v>
+      </c>
+      <c r="Q177">
+        <v>2858</v>
+      </c>
+      <c r="R177">
+        <v>1872</v>
+      </c>
+      <c r="S177">
+        <v>1267</v>
+      </c>
+      <c r="T177">
+        <v>350</v>
+      </c>
+      <c r="U177">
+        <v>917</v>
+      </c>
+      <c r="V177">
+        <v>9255</v>
+      </c>
+      <c r="W177">
+        <v>6026</v>
+      </c>
+      <c r="X177">
+        <v>3229</v>
+      </c>
+      <c r="Y177">
+        <v>4655</v>
+      </c>
+      <c r="Z177">
+        <v>2538</v>
+      </c>
+      <c r="AA177">
+        <v>2117</v>
       </c>
     </row>
   </sheetData>

--- a/6/2/2/Spot transacciones por contraparte 2007 a 2021 - Mensual.xlsx
+++ b/6/2/2/Spot transacciones por contraparte 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA177"/>
+  <dimension ref="A1:AA178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15635,6 +15638,89 @@
         <v>2117</v>
       </c>
     </row>
+    <row r="178" spans="1:27">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178">
+        <v>68485</v>
+      </c>
+      <c r="C178">
+        <v>63873</v>
+      </c>
+      <c r="D178">
+        <v>16974</v>
+      </c>
+      <c r="E178">
+        <v>17096</v>
+      </c>
+      <c r="F178">
+        <v>29803</v>
+      </c>
+      <c r="G178">
+        <v>5740</v>
+      </c>
+      <c r="H178">
+        <v>3055</v>
+      </c>
+      <c r="I178">
+        <v>2685</v>
+      </c>
+      <c r="J178">
+        <v>13474</v>
+      </c>
+      <c r="K178">
+        <v>6332</v>
+      </c>
+      <c r="L178">
+        <v>7142</v>
+      </c>
+      <c r="M178">
+        <v>621</v>
+      </c>
+      <c r="N178">
+        <v>231</v>
+      </c>
+      <c r="O178">
+        <v>390</v>
+      </c>
+      <c r="P178">
+        <v>4897</v>
+      </c>
+      <c r="Q178">
+        <v>2877</v>
+      </c>
+      <c r="R178">
+        <v>2020</v>
+      </c>
+      <c r="S178">
+        <v>1198</v>
+      </c>
+      <c r="T178">
+        <v>427</v>
+      </c>
+      <c r="U178">
+        <v>771</v>
+      </c>
+      <c r="V178">
+        <v>8140</v>
+      </c>
+      <c r="W178">
+        <v>4910</v>
+      </c>
+      <c r="X178">
+        <v>3230</v>
+      </c>
+      <c r="Y178">
+        <v>4612</v>
+      </c>
+      <c r="Z178">
+        <v>2468</v>
+      </c>
+      <c r="AA178">
+        <v>2144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
